--- a/alan_audran/journal d'activité.xlsx
+++ b/alan_audran/journal d'activité.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jean Marc\Documents\Alan\projet jeux alumettes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jean Marc\Documents\GitHub\Allumette\alan_audran\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D29814B2-353E-4AE7-9FFF-833010B27181}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40619AAA-F471-4471-A005-246BCA2ECCEB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CB8C3AD2-4F44-46E0-87AE-1E765D88CC6E}"/>
   </bookViews>
@@ -50,22 +50,22 @@
     <t xml:space="preserve">Alan Audran </t>
   </si>
   <si>
-    <t>1h30</t>
-  </si>
-  <si>
-    <t>Mercredi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T2a) </t>
-  </si>
-  <si>
-    <t>T2b)</t>
-  </si>
-  <si>
-    <t>30min</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mercredi </t>
+    <t>methode envoyerDonnees</t>
+  </si>
+  <si>
+    <t>2h</t>
+  </si>
+  <si>
+    <t>samedi</t>
+  </si>
+  <si>
+    <t>methode donneesRecues</t>
+  </si>
+  <si>
+    <t>3h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">samedi </t>
   </si>
 </sst>
 </file>
@@ -453,7 +453,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -482,81 +482,81 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B10">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B12">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
